--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_8.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_8.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_1</t>
+          <t>model_1_8_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9980018967978617</v>
+        <v>0.9361178988113981</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8296501428604837</v>
+        <v>0.7346393510544017</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8174149529721157</v>
+        <v>0.664972218524319</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9976535993764704</v>
+        <v>0.9376943822521576</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008317157921927838</v>
+        <v>0.2659109516473241</v>
       </c>
       <c r="G2" t="n">
-        <v>1.139130279080913</v>
+        <v>1.774467881372653</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6530961263294306</v>
+        <v>1.198374948311591</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0195514165544737</v>
+        <v>0.1606711585556203</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1741520279729045</v>
+        <v>1.340443551970282</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09119845350622914</v>
+        <v>0.5156655424277679</v>
       </c>
       <c r="L2" t="n">
-        <v>1.127878604936853</v>
+        <v>0.9130116068921165</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09263473798394488</v>
+        <v>0.5237867592445781</v>
       </c>
       <c r="N2" t="n">
-        <v>139.5788693568567</v>
+        <v>36.64918758898195</v>
       </c>
       <c r="O2" t="n">
-        <v>280.9140419000731</v>
+        <v>73.61377117720778</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_2</t>
+          <t>model_1_8_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9980069849906319</v>
+        <v>0.9361002788897269</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8296435597533963</v>
+        <v>0.7344945881388592</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8173605813970283</v>
+        <v>0.6650314780053366</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9976262549852721</v>
+        <v>0.9380564485374534</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008295978183683099</v>
+        <v>0.2659842950416766</v>
       </c>
       <c r="G3" t="n">
-        <v>1.139174300348319</v>
+        <v>1.775435911655458</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6532906103008735</v>
+        <v>1.198162980584053</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01977926408288909</v>
+        <v>0.1597374769449534</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1737398489808986</v>
+        <v>1.339524770878468</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09108226053235119</v>
+        <v>0.5157366528003188</v>
       </c>
       <c r="L3" t="n">
-        <v>1.127552960599559</v>
+        <v>0.9129876138072877</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0925167150868787</v>
+        <v>0.5238589895344123</v>
       </c>
       <c r="N3" t="n">
-        <v>139.5839688755952</v>
+        <v>36.64863602628029</v>
       </c>
       <c r="O3" t="n">
-        <v>280.9191414188116</v>
+        <v>73.61321961450611</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_3</t>
+          <t>model_1_8_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9980236334582285</v>
+        <v>0.9360616747699526</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8296002776187624</v>
+        <v>0.734199196227904</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8173452946274875</v>
+        <v>0.6651477108940322</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9976288211250468</v>
+        <v>0.9387879087713776</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008226678492850614</v>
+        <v>0.2661449857208446</v>
       </c>
       <c r="G4" t="n">
-        <v>1.139463728181911</v>
+        <v>1.77741119872417</v>
       </c>
       <c r="H4" t="n">
-        <v>0.653345290189143</v>
+        <v>1.197747222280759</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01975788168673415</v>
+        <v>0.1578512174474933</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1729823289025417</v>
+        <v>1.337659323633955</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09070103909465764</v>
+        <v>0.5158924168088193</v>
       </c>
       <c r="L4" t="n">
-        <v>1.126487458673374</v>
+        <v>0.9129350464952546</v>
       </c>
       <c r="M4" t="n">
-        <v>0.09212948979262311</v>
+        <v>0.5240172066703399</v>
       </c>
       <c r="N4" t="n">
-        <v>139.600745862143</v>
+        <v>36.64742811918055</v>
       </c>
       <c r="O4" t="n">
-        <v>280.9359184053594</v>
+        <v>73.61201170740637</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_4</t>
+          <t>model_1_8_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9980371032011898</v>
+        <v>0.9359726694989058</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8295699253076609</v>
+        <v>0.733584227224447</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8174804853079531</v>
+        <v>0.6653712945780674</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9976215737151096</v>
+        <v>0.9402801895762583</v>
       </c>
       <c r="F5" t="n">
-        <v>0.008170610328175008</v>
+        <v>0.2665154725377358</v>
       </c>
       <c r="G5" t="n">
-        <v>1.139666694226007</v>
+        <v>1.781523499281958</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6528617209639236</v>
+        <v>1.196947476407092</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01981827083307195</v>
+        <v>0.1540029852257885</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1725351716080396</v>
+        <v>1.333792581231566</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0903914283999042</v>
+        <v>0.5162513656521751</v>
       </c>
       <c r="L5" t="n">
-        <v>1.125625395123855</v>
+        <v>0.9128138478282972</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09181500303892445</v>
+        <v>0.5243818085991613</v>
       </c>
       <c r="N5" t="n">
-        <v>139.6144233386588</v>
+        <v>36.64464595751721</v>
       </c>
       <c r="O5" t="n">
-        <v>280.9495958818752</v>
+        <v>73.60922954574303</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_0</t>
+          <t>model_1_8_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9978636185359618</v>
+        <v>0.9356649170614586</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8282943808479676</v>
+        <v>0.7318924033387526</v>
       </c>
       <c r="D6" t="n">
-        <v>0.820851786100562</v>
+        <v>0.6658615148977751</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9978086033477432</v>
+        <v>0.9441848074017218</v>
       </c>
       <c r="F6" t="n">
-        <v>0.008892744878677302</v>
+        <v>0.2677965002746253</v>
       </c>
       <c r="G6" t="n">
-        <v>1.148196265901318</v>
+        <v>1.792836733395729</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6408027735080132</v>
+        <v>1.195193986748105</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01825984376014191</v>
+        <v>0.1439339177418072</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1903681274220403</v>
+        <v>1.323351815546843</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09430135141490445</v>
+        <v>0.5174905798897457</v>
       </c>
       <c r="L6" t="n">
-        <v>1.136728413698442</v>
+        <v>0.912394780679433</v>
       </c>
       <c r="M6" t="n">
-        <v>0.09578650343292187</v>
+        <v>0.5256405392222139</v>
       </c>
       <c r="N6" t="n">
-        <v>139.4450390337136</v>
+        <v>36.63505582847958</v>
       </c>
       <c r="O6" t="n">
-        <v>280.78021157693</v>
+        <v>73.5996394167054</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_5</t>
+          <t>model_1_8_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9980886646466454</v>
+        <v>0.9355860347190104</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8282558513937059</v>
+        <v>0.731525236888098</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8189541536265422</v>
+        <v>0.6659446427059721</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9976308938033703</v>
+        <v>0.9449955822744331</v>
       </c>
       <c r="F7" t="n">
-        <v>0.007955984434938758</v>
+        <v>0.268124850130975</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148453912539377</v>
+        <v>1.795291977141902</v>
       </c>
       <c r="H7" t="n">
-        <v>0.647590494836529</v>
+        <v>1.194896643398212</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01974061106513603</v>
+        <v>0.1418431249235172</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1604681085337187</v>
+        <v>1.321131916572169</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08919632523225807</v>
+        <v>0.5178077347152851</v>
       </c>
       <c r="L7" t="n">
-        <v>1.122325462614697</v>
+        <v>0.9122873664258865</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09060107819105277</v>
+        <v>0.5259626889192169</v>
       </c>
       <c r="N7" t="n">
-        <v>139.6676617487703</v>
+        <v>36.63260509650417</v>
       </c>
       <c r="O7" t="n">
-        <v>281.0028342919867</v>
+        <v>73.59718868473</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_6</t>
+          <t>model_1_8_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9982724440424282</v>
+        <v>0.9355445129827689</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8282545936374848</v>
+        <v>0.7313377806171825</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8189378980997664</v>
+        <v>0.6659841069560124</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9978432536696423</v>
+        <v>0.9454047031263735</v>
       </c>
       <c r="F8" t="n">
-        <v>0.007190997793665034</v>
+        <v>0.2682976854665787</v>
       </c>
       <c r="G8" t="n">
-        <v>1.14846232316102</v>
+        <v>1.796545498088671</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6476486399132566</v>
+        <v>1.194755482064086</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01797111946029221</v>
+        <v>0.140788100936169</v>
       </c>
       <c r="J8" t="n">
-        <v>0.150556444925083</v>
+        <v>1.320000907394266</v>
       </c>
       <c r="K8" t="n">
-        <v>0.08479975114152773</v>
+        <v>0.5179745992484368</v>
       </c>
       <c r="L8" t="n">
-        <v>1.110563581284595</v>
+        <v>0.9122308261893023</v>
       </c>
       <c r="M8" t="n">
-        <v>0.08613526245335512</v>
+        <v>0.5261321814019625</v>
       </c>
       <c r="N8" t="n">
-        <v>139.8698506833615</v>
+        <v>36.63131629649958</v>
       </c>
       <c r="O8" t="n">
-        <v>281.2050232265779</v>
+        <v>73.59589988472541</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_8</t>
+          <t>model_1_8_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9984956906099638</v>
+        <v>0.9349691924115439</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8281606592691407</v>
+        <v>0.7290914144998673</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8172787852793637</v>
+        <v>0.6663005178510526</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9979312741090546</v>
+        <v>0.9500695926983198</v>
       </c>
       <c r="F9" t="n">
-        <v>0.006261727996322035</v>
+        <v>0.2706924727035399</v>
       </c>
       <c r="G9" t="n">
-        <v>1.149090462714665</v>
+        <v>1.811566958658723</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6535831902709485</v>
+        <v>1.193623698639085</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01723768789749753</v>
+        <v>0.1287584760138705</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1349052506311356</v>
+        <v>1.306754360140708</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07913108110168871</v>
+        <v>0.5202811477495027</v>
       </c>
       <c r="L9" t="n">
-        <v>1.096275800962317</v>
+        <v>0.9114474109433789</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08037731652697974</v>
+        <v>0.5284750557362177</v>
       </c>
       <c r="N9" t="n">
-        <v>140.1465981884208</v>
+        <v>36.61354377906522</v>
       </c>
       <c r="O9" t="n">
-        <v>281.4817707316373</v>
+        <v>73.57812736729105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_7</t>
+          <t>model_1_8_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9984252909776234</v>
+        <v>0.9342165576594719</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8279636159587614</v>
+        <v>0.7267139068542074</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8186544556258762</v>
+        <v>0.6663409254366324</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9979592504725007</v>
+        <v>0.9545649430521417</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00655476834538571</v>
+        <v>0.2738253349520039</v>
       </c>
       <c r="G10" t="n">
-        <v>1.150408092238472</v>
+        <v>1.827465363232667</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6486624972074228</v>
+        <v>1.193479163048433</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01700457445134196</v>
+        <v>0.1171660518381713</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1382885056721754</v>
+        <v>1.293432960695077</v>
       </c>
       <c r="K10" t="n">
-        <v>0.08096152385785306</v>
+        <v>0.5232832263239515</v>
       </c>
       <c r="L10" t="n">
-        <v>1.100781377432099</v>
+        <v>0.9104225466001319</v>
       </c>
       <c r="M10" t="n">
-        <v>0.08223658692678222</v>
+        <v>0.5315244140472364</v>
       </c>
       <c r="N10" t="n">
-        <v>140.0551250050609</v>
+        <v>36.59052967907849</v>
       </c>
       <c r="O10" t="n">
-        <v>281.3902975482773</v>
+        <v>73.55511326730431</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_8_9</t>
+          <t>model_1_8_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9985335860468701</v>
+        <v>0.9333861282576841</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8279197621590764</v>
+        <v>0.7260845245326749</v>
       </c>
       <c r="D11" t="n">
-        <v>0.817137566516757</v>
+        <v>0.6674919803585658</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9978698771048683</v>
+        <v>0.9579682118935156</v>
       </c>
       <c r="F11" t="n">
-        <v>0.006103987228510998</v>
+        <v>0.2772820195067801</v>
       </c>
       <c r="G11" t="n">
-        <v>1.150701342798894</v>
+        <v>1.831674045714794</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6540883215964581</v>
+        <v>1.189361906334676</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01774927930776505</v>
+        <v>0.1083898424467038</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1311849128074976</v>
+        <v>1.282119637279361</v>
       </c>
       <c r="K11" t="n">
-        <v>0.07812801820416923</v>
+        <v>0.5265757490682419</v>
       </c>
       <c r="L11" t="n">
-        <v>1.093850493000311</v>
+        <v>0.9092917491168464</v>
       </c>
       <c r="M11" t="n">
-        <v>0.07935845639151937</v>
+        <v>0.5348687907334342</v>
       </c>
       <c r="N11" t="n">
-        <v>140.1976261546338</v>
+        <v>36.56544033953065</v>
       </c>
       <c r="O11" t="n">
-        <v>281.5327986978502</v>
+        <v>73.53002392775647</v>
       </c>
     </row>
   </sheetData>
